--- a/xls/new.xlsx
+++ b/xls/new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1207">
   <si>
     <t>L3 / Box No. : 1</t>
   </si>
@@ -42,6 +42,18 @@
     <t>ID : LISH3080321002</t>
   </si>
   <si>
+    <t>L3 / Box No. : 3</t>
+  </si>
+  <si>
+    <t>L3 / Box No. : 4</t>
+  </si>
+  <si>
+    <t>L3 / Box No. : 5</t>
+  </si>
+  <si>
+    <t>L3 / Box No. : 6</t>
+  </si>
+  <si>
     <t>Lot / Box no.</t>
   </si>
   <si>
@@ -66,9 +78,6 @@
     <t>LFR000013435</t>
   </si>
   <si>
-    <t>L3 / Box No. : 3</t>
-  </si>
-  <si>
     <t>LFR000013436</t>
   </si>
   <si>
@@ -78,9 +87,6 @@
     <t>ID : LISH3080321003</t>
   </si>
   <si>
-    <t>L3 / Box No. : 4</t>
-  </si>
-  <si>
     <t>LFR000013486</t>
   </si>
   <si>
@@ -90,9 +96,6 @@
     <t>ID : LISH3080321004</t>
   </si>
   <si>
-    <t>L3 / Box No. : 5</t>
-  </si>
-  <si>
     <t>LFR000013536</t>
   </si>
   <si>
@@ -100,9 +103,6 @@
   </si>
   <si>
     <t>ID : LISH3080321005</t>
-  </si>
-  <si>
-    <t>L3 / Box No. : 6</t>
   </si>
   <si>
     <t>LFR000013586</t>
@@ -3771,14 +3771,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="00000000"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="00000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4410,16 +4412,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="2:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
@@ -4427,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -4441,10 +4443,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -4452,49 +4454,49 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>28</v>
@@ -11426,10 +11428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -11441,230 +11443,373 @@
   </cols>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>11</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3">
-        <v>14</v>
-      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5">
-        <v>24</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>31</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="5">
-        <v>34</v>
-      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>41</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
-        <v>44</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>5</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="12">
         <v>13336</v>
       </c>
       <c r="C5" s="13">
         <v>13385</v>
       </c>
-      <c r="D5" s="14">
-        <v>54</v>
-      </c>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>61</v>
-      </c>
-      <c r="B6" s="15">
-        <v>62</v>
-      </c>
-      <c r="C6" s="15">
-        <v>63</v>
-      </c>
-      <c r="D6" s="5">
-        <v>64</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>71</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21">
-        <v>73</v>
-      </c>
-      <c r="D7" s="5">
-        <v>74</v>
-      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>81</v>
-      </c>
-      <c r="B8" s="18">
-        <v>82</v>
-      </c>
-      <c r="C8" s="18">
-        <v>83</v>
-      </c>
-      <c r="D8" s="19">
-        <v>84</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="10" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>11</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5">
-        <v>24</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>31</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>34</v>
-      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>41</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
-        <v>44</v>
-      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
+      <c r="A14" s="11"/>
       <c r="B14" s="12">
         <v>13336</v>
       </c>
       <c r="C14" s="13">
         <v>13385</v>
       </c>
-      <c r="D14" s="14">
-        <v>54</v>
-      </c>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>61</v>
-      </c>
-      <c r="B15" s="15">
-        <v>62</v>
-      </c>
-      <c r="C15" s="15">
-        <v>63</v>
-      </c>
-      <c r="D15" s="5">
-        <v>64</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>71</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="21">
-        <v>73</v>
-      </c>
-      <c r="D16" s="5">
-        <v>74</v>
-      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>81</v>
-      </c>
-      <c r="B17" s="18">
-        <v>82</v>
-      </c>
-      <c r="C17" s="18">
-        <v>83</v>
-      </c>
-      <c r="D17" s="19">
-        <v>84</v>
-      </c>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="20" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12">
+        <v>13336</v>
+      </c>
+      <c r="C24" s="13">
+        <v>13385</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="30" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12">
+        <v>13336</v>
+      </c>
+      <c r="C34" s="13">
+        <v>13385</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="40" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12">
+        <v>13336</v>
+      </c>
+      <c r="C44" s="13">
+        <v>13385</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="50" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12">
+        <v>13336</v>
+      </c>
+      <c r="C54" s="13">
+        <v>13385</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xls/new.xlsx
+++ b/xls/new.xlsx
@@ -45,15 +45,27 @@
     <t>L3 / Box No. : 3</t>
   </si>
   <si>
+    <t>ID : LISH3080321003</t>
+  </si>
+  <si>
     <t>L3 / Box No. : 4</t>
   </si>
   <si>
+    <t>ID : LISH3080321004</t>
+  </si>
+  <si>
     <t>L3 / Box No. : 5</t>
   </si>
   <si>
+    <t>ID : LISH3080321005</t>
+  </si>
+  <si>
     <t>L3 / Box No. : 6</t>
   </si>
   <si>
+    <t>ID : LISH3080321006</t>
+  </si>
+  <si>
     <t>Lot / Box no.</t>
   </si>
   <si>
@@ -84,34 +96,22 @@
     <t>LFR000013485</t>
   </si>
   <si>
-    <t>ID : LISH3080321003</t>
-  </si>
-  <si>
     <t>LFR000013486</t>
   </si>
   <si>
     <t>LFR000013535</t>
   </si>
   <si>
-    <t>ID : LISH3080321004</t>
-  </si>
-  <si>
     <t>LFR000013536</t>
   </si>
   <si>
     <t>LFR000013585</t>
   </si>
   <si>
-    <t>ID : LISH3080321005</t>
-  </si>
-  <si>
     <t>LFR000013586</t>
   </si>
   <si>
     <t>LFR000013635</t>
-  </si>
-  <si>
-    <t>ID : LISH3080321006</t>
   </si>
   <si>
     <t>L3 / Box No. : 7</t>
@@ -4412,16 +4412,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="2:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -4443,10 +4443,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -4457,55 +4457,55 @@
         <v>7</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
@@ -11535,10 +11535,10 @@
     <row r="14" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12">
-        <v>13336</v>
+        <v>13386</v>
       </c>
       <c r="C14" s="13">
-        <v>13385</v>
+        <v>13435</v>
       </c>
       <c r="D14" s="14"/>
     </row>
@@ -11551,7 +11551,7 @@
     <row r="16" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="5"/>
@@ -11595,10 +11595,10 @@
     <row r="24" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12">
-        <v>13336</v>
+        <v>13436</v>
       </c>
       <c r="C24" s="13">
-        <v>13385</v>
+        <v>13485</v>
       </c>
       <c r="D24" s="14"/>
     </row>
@@ -11611,7 +11611,7 @@
     <row r="26" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="5"/>
@@ -11625,7 +11625,7 @@
     <row r="30" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="3"/>
@@ -11655,10 +11655,10 @@
     <row r="34" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12">
-        <v>13336</v>
+        <v>13486</v>
       </c>
       <c r="C34" s="13">
-        <v>13385</v>
+        <v>13535</v>
       </c>
       <c r="D34" s="14"/>
     </row>
@@ -11671,7 +11671,7 @@
     <row r="36" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="5"/>
@@ -11685,7 +11685,7 @@
     <row r="40" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="3"/>
@@ -11715,10 +11715,10 @@
     <row r="44" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="12">
-        <v>13336</v>
+        <v>13536</v>
       </c>
       <c r="C44" s="13">
-        <v>13385</v>
+        <v>13585</v>
       </c>
       <c r="D44" s="14"/>
     </row>
@@ -11731,7 +11731,7 @@
     <row r="46" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="5"/>
@@ -11745,7 +11745,7 @@
     <row r="50" ht="46.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="3"/>
@@ -11775,10 +11775,10 @@
     <row r="54" ht="47.25" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12">
-        <v>13336</v>
+        <v>13586</v>
       </c>
       <c r="C54" s="13">
-        <v>13385</v>
+        <v>13635</v>
       </c>
       <c r="D54" s="14"/>
     </row>
@@ -11791,7 +11791,7 @@
     <row r="56" ht="36" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="5"/>
